--- a/Arquivos/Estatistica/Prova 01/Prova 01.xlsx
+++ b/Arquivos/Estatistica/Prova 01/Prova 01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\AtividadesFaculdade\Arquivos\Estatistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\AtividadesFaculdade\Arquivos\Estatistica\Prova 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A892C58E-71ED-4E7B-9DAE-2FA1EA388635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75667179-3FEA-4509-A3E6-C7FC5A001F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A77F4E86-F905-4AA5-9E5C-6D71E79B919B}"/>
   </bookViews>
@@ -17,6 +17,14 @@
     <sheet name="Questão 2" sheetId="2" r:id="rId2"/>
     <sheet name="Questão 4" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Questão 1'!$E$20:$E$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Questão 1'!$F$20:$F$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Questão 1'!$E$20:$E$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Questão 1'!$F$20:$F$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Questão 1'!$E$20:$E$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Questão 1'!$F$20:$F$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
   <si>
     <t>Dados</t>
   </si>
@@ -248,18 +256,67 @@
   <si>
     <t>(Soma/(total-1)</t>
   </si>
+  <si>
+    <t>(SOMA/QUANTIDADE = 368,65/25)</t>
+  </si>
+  <si>
+    <t>(Valor central com os dados ordenados)</t>
+  </si>
+  <si>
+    <t>((xi-Média)^2)</t>
+  </si>
+  <si>
+    <t>(Raiz da variância)</t>
+  </si>
+  <si>
+    <t>VALORES ISOLADOS:</t>
+  </si>
+  <si>
+    <t>INTERVALOS:</t>
+  </si>
+  <si>
+    <t>(SOMA DE TODOS MULTIPLICADOS PELAS SUAS FREQUÊNCIAS/QUANTIDADE = 368,72/25)</t>
+  </si>
+  <si>
+    <t>n/2=</t>
+  </si>
+  <si>
+    <t>Lmd=</t>
+  </si>
+  <si>
+    <t>Fant=</t>
+  </si>
+  <si>
+    <t>Fmd=</t>
+  </si>
+  <si>
+    <t>h=</t>
+  </si>
+  <si>
+    <t>Fi↓</t>
+  </si>
+  <si>
+    <t>Variância arredondada</t>
+  </si>
+  <si>
+    <t>((PontoMedio-Média)^2)*Frequencia</t>
+  </si>
+  <si>
+    <t>SOMA TODOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
     <numFmt numFmtId="168" formatCode="0.000000000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -327,12 +384,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -399,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,6 +523,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,6 +550,907 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Polígono</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Questão 1'!$F$20:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Questão 1'!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C5F-4469-8488-A87D1A2E04D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1360449551"/>
+        <c:axId val="1360449967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1360449551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360449967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1360449967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360449551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -487,8 +1461,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>286759</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67684</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123963</xdr:rowOff>
     </xdr:to>
@@ -515,6 +1489,139 @@
         <a:xfrm>
           <a:off x="790575" y="85725"/>
           <a:ext cx="7230484" cy="990738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B418D8-B534-40EC-ABAB-4A690C9210A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="5143500"/>
+          <a:ext cx="5607050" cy="3735705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C110B87-E9EF-44B1-AFD7-29195D62788A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>343170</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>47758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC73F4F5-6F1B-415C-A9EF-56EACC7A154D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="17421225"/>
+          <a:ext cx="1933845" cy="952633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,16 +1930,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499F8018-6712-43CD-84EC-58B58B271E58}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90:J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
@@ -1215,6 +2323,526 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="19"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="6">
+        <f>SUM(A2:A26)/25</f>
+        <v>14.746000000000002</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="8">
+        <f>(A2-$D$49)^2</f>
+        <v>0.55651600000000334</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="8">
+        <f t="shared" ref="D53:D76" si="1">(A3-$D$49)^2</f>
+        <v>0.41731600000000335</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+      <c r="D54" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37945600000000179</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33177600000000262</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="D56" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29811600000000321</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D57" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29811600000000321</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D58" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19891600000000134</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D59" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19891600000000134</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D60" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19891600000000134</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D61" s="8">
+        <f t="shared" si="1"/>
+        <v>0.15681600000000204</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D62" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11971600000000129</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D63" s="8">
+        <f t="shared" si="1"/>
+        <v>6.051600000000109E-2</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D64" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1316000000000751E-2</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1160000000002691E-3</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9159999999998371E-3</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9159999999998371E-3</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="8">
+        <f>(A18-$D$49)^2</f>
+        <v>2.3715999999999425E-2</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="8">
+        <f t="shared" si="1"/>
+        <v>6.451599999999888E-2</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12531599999999818</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20611599999999733</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72931599999999563</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72931599999999563</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D74" s="8">
+        <f t="shared" si="1"/>
+        <v>0.91011599999999437</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1109159999999969</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3317159999999957</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="8">
+        <f>SUM(D52:D76)</f>
+        <v>8.4753999999999987</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="13">
+        <f>D77/(25-1)</f>
+        <v>0.35314166666666663</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.35314166666666663</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="6">
+        <f>SQRT(D79)</f>
+        <v>0.59425723947350162</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="25">
+        <f>SUM(F20*E20,F21*E21,F22*E22,F23*E23,F24*E24,F25*E25)/25</f>
+        <v>14.748800000000001</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="3">
+        <f>25/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="3">
+        <v>14.32</v>
+      </c>
+      <c r="H93" s="3">
+        <f>E20</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="3">
+        <v>9</v>
+      </c>
+      <c r="H94" s="3">
+        <f>H93+E21</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="3">
+        <v>4</v>
+      </c>
+      <c r="H95" s="3">
+        <f>H94+E22</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="3">
+        <f>0.32</f>
+        <v>0.32</v>
+      </c>
+      <c r="H96" s="3">
+        <f>H95+E23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="25">
+        <f>D93+((D92-D94)/D95)*D96</f>
+        <v>14.6</v>
+      </c>
+      <c r="H97" s="3">
+        <f>H96+E24</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="3">
+        <f>H97+E25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="22">
+        <f>((F20-$D$90)^2)*E20</f>
+        <v>3.1201689600000089</v>
+      </c>
+      <c r="E99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="2"/>
+      <c r="D100" s="22">
+        <f t="shared" ref="D100:D104" si="2">((F21-$D$90)^2)*E21</f>
+        <v>0.28901376000000129</v>
+      </c>
+      <c r="E100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="3"/>
+      <c r="D101" s="22">
+        <f t="shared" si="2"/>
+        <v>1.0485759999999874E-2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="3"/>
+      <c r="D102" s="22">
+        <f t="shared" si="2"/>
+        <v>0.41336831999999596</v>
+      </c>
+      <c r="E102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" s="3"/>
+      <c r="D103" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="22">
+        <f t="shared" si="2"/>
+        <v>5.112627199999987</v>
+      </c>
+      <c r="E104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="22">
+        <f>SUM(D99:D104)</f>
+        <v>8.9456639999999936</v>
+      </c>
+      <c r="E105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="22">
+        <f>D105/25</f>
+        <v>0.35782655999999974</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0.35782655999999974</v>
+      </c>
+      <c r="E107" s="22"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="22"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="6">
+        <f>SQRT(D107)</f>
+        <v>0.59818605801205338</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1228,7 +2856,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
